--- a/data/trans_camb/IP17-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP17-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>-16,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,07</t>
+          <t>17,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-6,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>-12,13</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,81</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-11,58</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-4,86</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-5,15</t>
+          <t>7,65</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 7,48</t>
+          <t>-32,65; -3,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 5,9</t>
+          <t>-18,13; 22,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 3,55</t>
+          <t>-6,22; 47,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 6,49</t>
+          <t>-29,07; 15,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 8,9</t>
+          <t>-32,5; 12,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,43; -1,69</t>
+          <t>-24,82; 23,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 5,22</t>
+          <t>-25,72; 2,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 5,37</t>
+          <t>-20,04; 10,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,64; -0,39</t>
+          <t>-8,03; 29,86</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>-84,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,78%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-13,66%</t>
+          <t>90,03%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,69%</t>
+          <t>-22,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>-42,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-34,05%</t>
+          <t>-4,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>-48,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>-20,51%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-22,68%</t>
+          <t>32,31%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,76; 38,33</t>
+          <t>-100,0; 93,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-27,66; 29,9</t>
+          <t>-70,96; 220,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-33,71; 17,85</t>
+          <t>-31,99; 502,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,22; 30,98</t>
+          <t>-75,11; 111,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 44,79</t>
+          <t>-85,94; 117,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,81; -7,6</t>
+          <t>-63,56; 139,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,01; 25,17</t>
+          <t>-80,76; 31,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,02; 26,31</t>
+          <t>-62,97; 76,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-38,24; -1,31</t>
+          <t>-29,13; 195,11</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,88</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,42</t>
+          <t>-3,07</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,64</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-7,81</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,28</t>
+          <t>-5,15</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 4,14</t>
+          <t>-5,28; 7,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 1,93</t>
+          <t>-7,17; 5,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,48; 0,02</t>
+          <t>-8,45; 3,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 13,55</t>
+          <t>-7,01; 6,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 6,47</t>
+          <t>-4,53; 8,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 5,9</t>
+          <t>-14,43; -1,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 7,11</t>
+          <t>-4,12; 5,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 2,17</t>
+          <t>-4,0; 5,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 0,66</t>
+          <t>-9,64; -0,39</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-10,35%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-21,15%</t>
+          <t>-4,78%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-32,16%</t>
+          <t>-13,66%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>37,34%</t>
+          <t>-0,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-6,5%</t>
+          <t>-34,05%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-11,63%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-20,97%</t>
+          <t>-22,68%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,75; 22,01</t>
+          <t>-20,76; 38,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-43,73; 9,8</t>
+          <t>-27,66; 29,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,22; 1,17</t>
+          <t>-33,71; 17,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,53; 90,76</t>
+          <t>-26,22; 30,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,72; 43,11</t>
+          <t>-17,55; 44,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-34,26; 39,69</t>
+          <t>-54,81; -7,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 38,7</t>
+          <t>-17,01; 25,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-28,69; 12,52</t>
+          <t>-16,02; 26,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-39,94; 3,38</t>
+          <t>-38,24; -1,31</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-16,34</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>-4,36</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,42</t>
+          <t>-5,49</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-6,5</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-12,13</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-11,58</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-4,86</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,65</t>
+          <t>-3,83</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-32,65; -3,36</t>
+          <t>-4,45; 10,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 22,39</t>
+          <t>-11,59; 2,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 47,74</t>
+          <t>-12,67; 2,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-29,07; 15,34</t>
+          <t>-3,07; 11,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-32,5; 12,6</t>
+          <t>-3,77; 9,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-24,82; 23,75</t>
+          <t>-9,46; 5,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-25,72; 2,94</t>
+          <t>-1,7; 8,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-20,04; 10,92</t>
+          <t>-5,78; 4,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 29,86</t>
+          <t>-9,19; 1,2</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-84,43%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>-19,18%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>90,03%</t>
+          <t>-24,15%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-22,81%</t>
+          <t>23,77%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-42,55%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-4,62%</t>
+          <t>-11,54%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-48,94%</t>
+          <t>17,3%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-20,51%</t>
+          <t>-5,19%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>32,31%</t>
+          <t>-19,13%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 93,18</t>
+          <t>-16,8; 54,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-70,96; 220,54</t>
+          <t>-43,35; 15,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,99; 502,81</t>
+          <t>-47,86; 12,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-75,11; 111,52</t>
+          <t>-15,67; 86,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-85,94; 117,79</t>
+          <t>-18,86; 70,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-63,56; 139,43</t>
+          <t>-46,52; 39,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-80,76; 31,53</t>
+          <t>-8,25; 46,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-62,97; 76,13</t>
+          <t>-25,22; 23,79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-29,13; 195,11</t>
+          <t>-40,35; 6,81</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-4,36</t>
+          <t>-4,88</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-5,49</t>
+          <t>-7,42</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-3,83</t>
+          <t>-4,28</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 10,4</t>
+          <t>-8,69; 4,14</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 2,94</t>
+          <t>-11,25; 1,93</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 2,23</t>
+          <t>-13,48; 0,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 11,45</t>
+          <t>0,08; 13,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 9,4</t>
+          <t>-6,17; 6,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 5,18</t>
+          <t>-7,01; 5,9</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 8,26</t>
+          <t>-2,11; 7,11</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 4,05</t>
+          <t>-6,41; 2,17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 1,2</t>
+          <t>-9,17; 0,66</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>-10,35%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-19,18%</t>
+          <t>-21,15%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-24,15%</t>
+          <t>-32,16%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>37,34%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-11,54%</t>
+          <t>-6,5%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-5,19%</t>
+          <t>-11,63%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-19,13%</t>
+          <t>-20,97%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 54,57</t>
+          <t>-33,75; 22,01</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-43,35; 15,81</t>
+          <t>-43,73; 9,8</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-47,86; 12,6</t>
+          <t>-51,22; 1,17</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-15,67; 86,06</t>
+          <t>0,53; 90,76</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-18,86; 70,7</t>
+          <t>-29,72; 43,11</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-46,52; 39,71</t>
+          <t>-34,26; 39,69</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 46,23</t>
+          <t>-9,93; 38,7</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-25,22; 23,79</t>
+          <t>-28,69; 12,52</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-40,35; 6,81</t>
+          <t>-39,94; 3,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP17-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP17-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-32,65; -3,36</t>
+          <t>-34,6; -3,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 22,39</t>
+          <t>-19,02; 22,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 47,74</t>
+          <t>-6,01; 50,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,07; 15,34</t>
+          <t>-29,06; 15,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-32,5; 12,6</t>
+          <t>-32,33; 12,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,82; 23,75</t>
+          <t>-24,22; 23,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,72; 2,94</t>
+          <t>-24,77; 2,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,04; 10,92</t>
+          <t>-21,05; 9,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 29,86</t>
+          <t>-10,2; 25,41</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 93,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-70,96; 220,54</t>
+          <t>-69,32; 231,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-31,99; 502,81</t>
+          <t>-36,95; 507,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-75,11; 111,52</t>
+          <t>-74,12; 107,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-85,94; 117,79</t>
+          <t>-83,58; 113,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-63,56; 139,43</t>
+          <t>-63,86; 161,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-80,76; 31,53</t>
+          <t>-79,48; 22,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-62,97; 76,13</t>
+          <t>-66,26; 60,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-29,13; 195,11</t>
+          <t>-37,04; 157,36</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 11,63</t>
+          <t>-5,02; 12,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 7,51</t>
+          <t>-9,46; 7,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 0,37</t>
+          <t>-15,49; 0,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 13,37</t>
+          <t>-3,97; 13,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 7,24</t>
+          <t>-8,65; 8,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 0,03</t>
+          <t>-14,87; 0,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 10,45</t>
+          <t>-2,02; 10,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 5,6</t>
+          <t>-5,83; 6,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,71; -1,76</t>
+          <t>-12,38; -0,97</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,72; 67,39</t>
+          <t>-20,35; 77,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,51; 44,13</t>
+          <t>-36,32; 45,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-60,13; 2,46</t>
+          <t>-61,49; 2,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 93,06</t>
+          <t>-16,89; 89,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,85; 50,14</t>
+          <t>-38,33; 57,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-64,95; 2,3</t>
+          <t>-64,96; 2,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 60,28</t>
+          <t>-8,87; 61,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,41; 32,86</t>
+          <t>-25,46; 35,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-54,77; -8,13</t>
+          <t>-53,66; -4,4</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 7,48</t>
+          <t>-6,0; 7,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 5,9</t>
+          <t>-8,24; 4,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 3,55</t>
+          <t>-9,71; 3,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 6,49</t>
+          <t>-7,19; 6,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 8,9</t>
+          <t>-4,36; 8,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,43; -1,69</t>
+          <t>-14,51; -1,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 5,22</t>
+          <t>-4,25; 5,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 5,37</t>
+          <t>-4,67; 5,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,64; -0,39</t>
+          <t>-9,74; -0,69</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,76; 38,33</t>
+          <t>-24,65; 35,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-27,66; 29,9</t>
+          <t>-31,27; 24,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,71; 17,85</t>
+          <t>-37,29; 16,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,22; 30,98</t>
+          <t>-26,64; 33,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 44,79</t>
+          <t>-16,41; 44,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-54,81; -7,6</t>
+          <t>-55,18; -6,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,01; 25,17</t>
+          <t>-16,98; 26,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,02; 26,31</t>
+          <t>-18,06; 25,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-38,24; -1,31</t>
+          <t>-38,77; -3,13</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 10,4</t>
+          <t>-5,14; 10,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 2,94</t>
+          <t>-11,44; 2,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 2,23</t>
+          <t>-12,88; 2,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 11,45</t>
+          <t>-3,07; 11,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 9,4</t>
+          <t>-4,22; 9,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 5,18</t>
+          <t>-8,6; 4,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 8,26</t>
+          <t>-1,79; 8,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 4,05</t>
+          <t>-6,25; 4,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 1,2</t>
+          <t>-9,03; 1,17</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 54,57</t>
+          <t>-18,82; 53,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-43,35; 15,81</t>
+          <t>-43,43; 15,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-47,86; 12,6</t>
+          <t>-48,96; 11,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,67; 86,06</t>
+          <t>-15,2; 85,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-18,86; 70,7</t>
+          <t>-20,68; 71,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-46,52; 39,71</t>
+          <t>-42,79; 37,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 46,23</t>
+          <t>-7,89; 49,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-25,22; 23,79</t>
+          <t>-27,57; 24,3</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-40,35; 6,81</t>
+          <t>-40,93; 6,57</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 4,14</t>
+          <t>-8,65; 4,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 1,93</t>
+          <t>-11,41; 1,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,48; 0,02</t>
+          <t>-13,49; 0,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,08; 13,55</t>
+          <t>0,08; 14,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 6,47</t>
+          <t>-5,75; 7,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 5,9</t>
+          <t>-7,67; 5,47</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 7,11</t>
+          <t>-2,46; 6,73</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 2,17</t>
+          <t>-7,14; 2,55</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 0,66</t>
+          <t>-8,73; 0,53</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-33,75; 22,01</t>
+          <t>-33,59; 23,98</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-43,73; 9,8</t>
+          <t>-43,57; 7,07</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-51,22; 1,17</t>
+          <t>-53,09; 2,92</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,53; 90,76</t>
+          <t>-0,16; 98,88</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-29,72; 43,11</t>
+          <t>-27,49; 51,53</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-34,26; 39,69</t>
+          <t>-35,8; 37,99</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 38,7</t>
+          <t>-10,86; 36,64</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-28,69; 12,52</t>
+          <t>-31,35; 14,64</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-39,94; 3,38</t>
+          <t>-38,44; 3,11</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 3,79</t>
+          <t>-3,16; 3,6</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 0,63</t>
+          <t>-6,22; 0,79</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,63; -1,64</t>
+          <t>-8,44; -1,46</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 7,06</t>
+          <t>-0,4; 6,99</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 4,06</t>
+          <t>-2,69; 4,48</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,64; -0,59</t>
+          <t>-7,77; -0,98</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 4,32</t>
+          <t>-0,87; 4,39</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 1,75</t>
+          <t>-3,45; 1,63</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,91; -2,21</t>
+          <t>-7,19; -2,13</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 17,95</t>
+          <t>-13,42; 17,42</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-26,02; 3,17</t>
+          <t>-25,57; 3,82</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-35,01; -7,96</t>
+          <t>-34,76; -6,74</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 39,19</t>
+          <t>-1,77; 40,1</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 22,67</t>
+          <t>-12,76; 24,46</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-35,27; -3,44</t>
+          <t>-36,24; -5,33</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 22,06</t>
+          <t>-3,74; 21,84</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 8,35</t>
+          <t>-15,28; 8,68</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-31,38; -11,02</t>
+          <t>-32,42; -10,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP17-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP17-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-34,6; -3,43</t>
+          <t>-33,62; -3,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,02; 22,48</t>
+          <t>-18,22; 22,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 50,06</t>
+          <t>-9,68; 45,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,06; 15,26</t>
+          <t>-28,67; 17,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-32,33; 12,46</t>
+          <t>-32,13; 10,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,22; 23,43</t>
+          <t>-24,89; 24,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,77; 2,1</t>
+          <t>-26,08; 2,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-21,05; 9,53</t>
+          <t>-18,68; 9,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 25,41</t>
+          <t>-11,44; 26,36</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 85,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-69,32; 231,6</t>
+          <t>-69,94; 248,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-36,95; 507,14</t>
+          <t>-48,93; 403,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-74,12; 107,86</t>
+          <t>-77,71; 118,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-83,58; 113,32</t>
+          <t>-87,42; 72,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-63,86; 161,38</t>
+          <t>-67,04; 158,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-79,48; 22,55</t>
+          <t>-80,97; 22,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-66,26; 60,4</t>
+          <t>-63,86; 69,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-37,04; 157,36</t>
+          <t>-39,75; 168,36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 12,33</t>
+          <t>-5,02; 12,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 7,74</t>
+          <t>-8,71; 8,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 0,25</t>
+          <t>-15,1; 0,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 13,0</t>
+          <t>-3,85; 14,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 8,04</t>
+          <t>-8,87; 7,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 0,29</t>
+          <t>-14,82; 0,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 10,53</t>
+          <t>-2,1; 10,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 6,16</t>
+          <t>-5,7; 5,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,38; -0,97</t>
+          <t>-12,47; -1,78</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,35; 77,76</t>
+          <t>-21,17; 74,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-36,32; 45,49</t>
+          <t>-34,59; 45,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-61,49; 2,75</t>
+          <t>-60,47; 2,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,89; 89,13</t>
+          <t>-18,26; 99,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,33; 57,34</t>
+          <t>-38,13; 47,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-64,96; 2,62</t>
+          <t>-63,2; 9,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 61,84</t>
+          <t>-8,44; 64,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,46; 35,31</t>
+          <t>-24,85; 36,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-53,66; -4,4</t>
+          <t>-53,89; -9,96</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 7,35</t>
+          <t>-5,1; 7,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 4,81</t>
+          <t>-7,08; 5,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 3,08</t>
+          <t>-9,27; 3,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 6,4</t>
+          <t>-6,78; 6,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 8,95</t>
+          <t>-3,78; 8,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,51; -1,42</t>
+          <t>-14,03; -1,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 5,24</t>
+          <t>-4,4; 5,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 5,05</t>
+          <t>-4,57; 4,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,74; -0,69</t>
+          <t>-9,82; -1,25</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,65; 35,81</t>
+          <t>-20,43; 42,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,27; 24,82</t>
+          <t>-27,6; 31,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,29; 16,68</t>
+          <t>-35,78; 19,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,64; 33,73</t>
+          <t>-26,43; 32,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 44,82</t>
+          <t>-15,3; 42,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-55,18; -6,19</t>
+          <t>-52,73; -6,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 26,21</t>
+          <t>-18,13; 26,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,06; 25,11</t>
+          <t>-18,11; 21,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-38,77; -3,13</t>
+          <t>-39,45; -5,8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 10,26</t>
+          <t>-4,67; 10,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 2,62</t>
+          <t>-11,05; 2,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 2,14</t>
+          <t>-12,88; 3,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 11,37</t>
+          <t>-3,93; 10,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 9,43</t>
+          <t>-4,26; 9,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 4,85</t>
+          <t>-8,96; 5,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 8,78</t>
+          <t>-1,73; 8,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 4,26</t>
+          <t>-5,97; 3,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 1,17</t>
+          <t>-8,88; 1,48</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-18,82; 53,55</t>
+          <t>-17,4; 54,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-43,43; 15,17</t>
+          <t>-41,71; 15,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-48,96; 11,61</t>
+          <t>-47,96; 22,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,2; 85,21</t>
+          <t>-18,39; 76,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,68; 71,27</t>
+          <t>-20,48; 65,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-42,79; 37,46</t>
+          <t>-43,16; 43,8</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 49,76</t>
+          <t>-7,26; 48,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,57; 24,3</t>
+          <t>-26,09; 21,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-40,93; 6,57</t>
+          <t>-40,03; 9,79</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 4,77</t>
+          <t>-8,91; 4,7</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 1,31</t>
+          <t>-12,13; 1,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 0,32</t>
+          <t>-14,49; -0,89</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,08; 14,09</t>
+          <t>-0,17; 13,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 7,25</t>
+          <t>-5,8; 6,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 5,47</t>
+          <t>-7,42; 5,93</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 6,73</t>
+          <t>-2,32; 6,71</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 2,55</t>
+          <t>-7,31; 1,91</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 0,53</t>
+          <t>-8,77; 0,63</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-33,59; 23,98</t>
+          <t>-33,78; 24,04</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-43,57; 7,07</t>
+          <t>-45,64; 7,22</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-53,09; 2,92</t>
+          <t>-55,12; -3,28</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 98,88</t>
+          <t>-2,5; 87,27</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-27,49; 51,53</t>
+          <t>-28,02; 41,77</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-35,8; 37,99</t>
+          <t>-34,96; 42,22</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 36,64</t>
+          <t>-10,34; 36,96</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-31,35; 14,64</t>
+          <t>-31,73; 11,46</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-38,44; 3,11</t>
+          <t>-39,04; 3,17</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 3,6</t>
+          <t>-3,16; 4,08</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 0,79</t>
+          <t>-5,7; 1,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,44; -1,46</t>
+          <t>-8,57; -1,55</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 6,99</t>
+          <t>-0,12; 6,92</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 4,48</t>
+          <t>-2,95; 4,07</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,77; -0,98</t>
+          <t>-7,77; -0,76</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 4,39</t>
+          <t>-0,89; 4,29</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 1,63</t>
+          <t>-3,4; 1,33</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,19; -2,13</t>
+          <t>-7,05; -2,25</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-13,42; 17,42</t>
+          <t>-12,73; 20,44</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-25,57; 3,82</t>
+          <t>-24,15; 4,82</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-34,76; -6,74</t>
+          <t>-35,5; -7,4</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 40,1</t>
+          <t>-0,56; 38,47</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 24,46</t>
+          <t>-13,54; 23,29</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-36,24; -5,33</t>
+          <t>-36,31; -3,93</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 21,84</t>
+          <t>-3,9; 21,56</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-15,28; 8,68</t>
+          <t>-15,35; 6,61</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-32,42; -10,64</t>
+          <t>-31,45; -11,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP17-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP17-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-16,34</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,42</t>
+          <t>-5,7</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,5</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-12,13</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-5,56</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-11,58</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-4,86</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,65</t>
+          <t>-5,61</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-33,62; -3,39</t>
+          <t>-5,55; 10,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 22,32</t>
+          <t>-10,43; 5,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 45,99</t>
+          <t>-13,87; 1,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-28,67; 17,58</t>
+          <t>-7,4; 7,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-32,13; 10,17</t>
+          <t>-8,12; 6,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,89; 24,02</t>
+          <t>-13,09; 2,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-26,08; 2,26</t>
+          <t>-4,23; 6,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 9,34</t>
+          <t>-6,45; 4,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 26,36</t>
+          <t>-11,06; -0,25</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-84,43%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>-11,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>90,03%</t>
+          <t>-28,17%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-22,81%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-42,55%</t>
+          <t>-1,07%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,62%</t>
+          <t>-26,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-48,94%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-20,51%</t>
+          <t>-5,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>32,31%</t>
+          <t>-27,18%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 85,5</t>
+          <t>-23,33; 65,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-69,94; 248,74</t>
+          <t>-44,85; 31,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,93; 403,92</t>
+          <t>-56,6; 10,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-77,71; 118,73</t>
+          <t>-30,52; 45,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-87,42; 72,07</t>
+          <t>-32,25; 39,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-67,04; 158,76</t>
+          <t>-53,75; 11,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-80,97; 22,1</t>
+          <t>-18,04; 38,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,86; 69,41</t>
+          <t>-28,09; 26,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-39,75; 168,36</t>
+          <t>-48,36; -1,46</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,45</t>
+          <t>-7,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,75</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-7,12</t>
+          <t>-5,05</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 12,38</t>
+          <t>-7,01; 6,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 8,12</t>
+          <t>-4,53; 8,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 0,29</t>
+          <t>-14,17; -1,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 14,14</t>
+          <t>-5,28; 7,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 7,58</t>
+          <t>-7,17; 5,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,82; 0,94</t>
+          <t>-8,52; 3,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 10,36</t>
+          <t>-4,12; 5,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 5,9</t>
+          <t>-4,0; 5,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,47; -1,78</t>
+          <t>-9,6; -0,35</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>-0,69%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,78%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-34,96%</t>
+          <t>-33,69%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,65%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,72%</t>
+          <t>-4,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-36,25%</t>
+          <t>-13,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-2,29%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-35,52%</t>
+          <t>-22,22%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 74,49</t>
+          <t>-26,22; 30,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-34,59; 45,48</t>
+          <t>-17,55; 44,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-60,47; 2,3</t>
+          <t>-54,2; -5,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,26; 99,45</t>
+          <t>-20,76; 38,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,13; 47,71</t>
+          <t>-27,66; 29,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-63,2; 9,07</t>
+          <t>-33,86; 19,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 64,02</t>
+          <t>-17,01; 25,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,85; 36,72</t>
+          <t>-16,02; 26,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-53,89; -9,96</t>
+          <t>-38,32; -0,16</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,07</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>-4,36</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-7,81</t>
+          <t>-5,62</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,15</t>
+          <t>-4,55</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 7,8</t>
+          <t>-3,07; 11,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 5,84</t>
+          <t>-3,77; 9,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 3,66</t>
+          <t>-11,85; 4,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 6,58</t>
+          <t>-4,45; 10,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 8,74</t>
+          <t>-11,59; 2,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,03; -1,46</t>
+          <t>-12,72; 2,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 5,27</t>
+          <t>-1,7; 8,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 4,4</t>
+          <t>-5,78; 4,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,82; -1,25</t>
+          <t>-10,33; 0,91</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>23,77%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,78%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-13,66%</t>
+          <t>-18,83%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,69%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>-19,18%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-34,05%</t>
+          <t>-24,75%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>17,3%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>-5,19%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-22,68%</t>
+          <t>-22,76%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,43; 42,17</t>
+          <t>-15,67; 86,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-27,6; 31,86</t>
+          <t>-18,86; 70,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-35,78; 19,49</t>
+          <t>-55,52; 34,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,43; 32,86</t>
+          <t>-16,8; 54,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,3; 42,46</t>
+          <t>-43,35; 15,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-52,73; -6,08</t>
+          <t>-48,66; 12,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 26,6</t>
+          <t>-8,25; 46,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 21,33</t>
+          <t>-25,22; 23,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-39,45; -5,8</t>
+          <t>-45,41; 5,17</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,36</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,49</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>-4,88</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-7,35</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,83</t>
+          <t>-4,23</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 10,56</t>
+          <t>0,08; 13,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 2,68</t>
+          <t>-6,17; 6,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 3,69</t>
+          <t>-7,19; 5,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 10,55</t>
+          <t>-8,69; 4,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 9,03</t>
+          <t>-11,25; 1,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 5,53</t>
+          <t>-13,51; -0,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 8,51</t>
+          <t>-2,11; 7,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 3,84</t>
+          <t>-6,41; 2,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 1,48</t>
+          <t>-9,17; 0,58</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>37,34%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-19,18%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-24,15%</t>
+          <t>-6,15%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>-10,35%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>-21,15%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-11,54%</t>
+          <t>-31,83%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-5,19%</t>
+          <t>-11,63%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-19,13%</t>
+          <t>-20,71%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,4; 54,64</t>
+          <t>0,53; 90,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,71; 15,1</t>
+          <t>-29,72; 43,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-47,96; 22,18</t>
+          <t>-34,49; 39,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,39; 76,17</t>
+          <t>-33,75; 22,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,48; 65,78</t>
+          <t>-43,73; 9,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-43,16; 43,8</t>
+          <t>-50,64; 0,58</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 48,98</t>
+          <t>-9,93; 38,7</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-26,09; 21,87</t>
+          <t>-28,69; 12,52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-40,03; 9,79</t>
+          <t>-39,4; 3,62</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-4,88</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-7,42</t>
+          <t>-4,54</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,64</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-4,28</t>
+          <t>-4,8</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 4,7</t>
+          <t>-0,3; 7,06</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 1,44</t>
+          <t>-2,89; 4,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,49; -0,89</t>
+          <t>-8,04; -0,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 13,18</t>
+          <t>-3,38; 3,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 6,25</t>
+          <t>-6,38; 0,63</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 5,93</t>
+          <t>-8,79; -1,81</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 6,71</t>
+          <t>-0,73; 4,32</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 1,91</t>
+          <t>-3,47; 1,75</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 0,63</t>
+          <t>-7,14; -2,21</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-10,35%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-21,15%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-32,16%</t>
+          <t>-23,14%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>37,34%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>-11,92%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-6,5%</t>
+          <t>-22,88%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-11,63%</t>
+          <t>-4,57%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-20,97%</t>
+          <t>-22,8%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-33,78; 24,04</t>
+          <t>-1,36; 39,19</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-45,64; 7,22</t>
+          <t>-13,2; 22,67</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-55,12; -3,28</t>
+          <t>-37,96; -3,16</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 87,27</t>
+          <t>-13,77; 17,95</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-28,02; 41,77</t>
+          <t>-26,02; 3,17</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-34,96; 42,22</t>
+          <t>-35,68; -8,86</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 36,96</t>
+          <t>-3,07; 22,06</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-31,73; 11,46</t>
+          <t>-15,78; 8,35</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-39,04; 3,17</t>
+          <t>-32,84; -11,36</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,31</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-2,67</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-4,97</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>3,36</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-4,31</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,79</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-0,96</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-4,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-3,16; 4,08</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-5,7; 1,0</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-8,57; -1,55</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,12; 6,92</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-2,95; 4,07</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-7,77; -0,76</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,89; 4,29</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-3,4; 1,33</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-7,05; -2,25</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>1,4%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-11,92%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-22,2%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>17,15%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>4,33%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-21,98%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>8,52%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-4,57%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-21,98%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-12,73; 20,44</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-24,15; 4,82</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-35,5; -7,4</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-0,56; 38,47</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-13,54; 23,29</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-36,31; -3,93</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-3,9; 21,56</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-15,35; 6,61</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-31,45; -11,17</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
